--- a/Labs_1st_smstr/Reports/Ледовской Егор бТИИ-241/Ариф действия над числами.xlsx
+++ b/Labs_1st_smstr/Reports/Ледовской Егор бТИИ-241/Ариф действия над числами.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ледовской Егор бТИИ-241\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student Practicum\Lab1_241_2\Labs_1st_smstr\Reports\Ледовской Егор бТИИ-241\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D3B58-3392-476E-A94F-C9D2E0E35B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B089D-6E99-41BC-92FD-EE5D2F4B3153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{67D7A3EC-F0A5-48C1-A566-C69991F5F085}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{67D7A3EC-F0A5-48C1-A566-C69991F5F085}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="14" r:id="rId1"/>
@@ -708,6 +708,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -720,144 +732,135 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,6 +936,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,30 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,61 +1753,61 @@
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="3.453125" customWidth="1"/>
-    <col min="4" max="13" width="3.7265625" customWidth="1"/>
-    <col min="14" max="14" width="3.1796875" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" customWidth="1"/>
-    <col min="16" max="16" width="8.1796875" customWidth="1"/>
-    <col min="17" max="23" width="5.7265625" customWidth="1"/>
-    <col min="24" max="31" width="3.26953125" customWidth="1"/>
-    <col min="32" max="36" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="17" max="23" width="5.7109375" customWidth="1"/>
+    <col min="24" max="31" width="3.28515625" customWidth="1"/>
+    <col min="32" max="36" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="117"/>
       <c r="N1" s="70"/>
-      <c r="R1" s="123" t="s">
+      <c r="R1" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="125"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="117"/>
       <c r="AF1" s="88"/>
       <c r="AG1" s="70"/>
       <c r="AH1" s="70"/>
       <c r="AI1" s="70"/>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
@@ -1843,7 +1843,7 @@
       <c r="M2" s="9">
         <v>1</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="121" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="89">
@@ -1899,11 +1899,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="4">
         <v>0</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="P3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="118"/>
+      <c r="R3" s="162"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
         <v>0</v>
@@ -1979,11 +1979,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="123" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="71">
@@ -2033,7 +2033,7 @@
       <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="119"/>
+      <c r="R4" s="122"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4">
         <v>1</v>
@@ -2072,9 +2072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="163"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="73">
         <f t="shared" ref="C5:M5" si="2">IF(C2-C3+C4&lt;0,2,0)</f>
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="R5" s="117" t="s">
+      <c r="R5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="S5" s="78">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="69" t="s">
         <v>15</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="R6" s="119"/>
+      <c r="R6" s="122"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>11</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R8" s="93" t="s">
         <v>15</v>
       </c>
@@ -2359,25 +2359,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="114" t="s">
+    <row r="9" spans="1:35" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
       <c r="M9" s="70"/>
-      <c r="O9" s="122" t="s">
+      <c r="O9" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="122"/>
+      <c r="P9" s="161"/>
       <c r="Q9" s="1" t="str">
         <f>CONCATENATE(T8,".",U8,V8,W8,X8,Y8,",",Z8,AA8,)</f>
         <v>0.11000,11</v>
@@ -2387,13 +2387,13 @@
       <c r="W9" s="78"/>
       <c r="X9" s="78"/>
     </row>
-    <row r="10" spans="1:35" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="1">
         <v>3</v>
       </c>
@@ -2410,13 +2410,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>3</v>
@@ -2430,25 +2430,25 @@
       <c r="I11" s="10">
         <v>3</v>
       </c>
-      <c r="P11" s="114" t="s">
+      <c r="P11" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="116"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="120"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="71">
         <f t="shared" ref="E12:H12" si="7">IF(F10-F11+F12&lt;0,-1,0)</f>
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="117" t="s">
+      <c r="P12" s="121" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="94">
@@ -2498,11 +2498,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="73">
         <f t="shared" ref="E13:H13" si="9">IF(E10-E11+E12&lt;0,8,0)</f>
         <v>0</v>
@@ -2526,7 +2526,7 @@
       <c r="O13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="118"/>
+      <c r="P13" s="162"/>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
@@ -2546,12 +2546,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="132" t="s">
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="85">
         <f t="shared" ref="E14:H14" si="10">IF(AND(F10-F11+F12&lt;0,F13=2),E10+E13-E11+E12,IF(F10-F11+F12+F13&gt;=0,E10-E11+E12+E13,E10-E11+E13+F12))</f>
         <v>3</v>
@@ -2576,7 +2576,7 @@
       <c r="O14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="119"/>
+      <c r="P14" s="122"/>
       <c r="Q14" s="4">
         <v>1</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="117" t="s">
+      <c r="P15" s="121" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="78">
@@ -2635,9 +2635,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O16" s="9"/>
-      <c r="P16" s="119"/>
+      <c r="P16" s="122"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2648,18 +2648,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="148"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -2687,13 +2687,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="18">
         <v>1</v>
       </c>
@@ -2744,13 +2744,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20">
         <v>3</v>
@@ -2785,15 +2785,15 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="18">
         <f>IF(E18=$K$18,$L$18,IF(E18=$K$19,$L$19,IF(E18=$K$20,$L$20,IF(E18=$K$21,$L$21,IF(E18=$K$22,$L$22,IF(E18=$K$23,$L$23,E18))))))</f>
         <v>1</v>
@@ -2822,11 +2822,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20">
         <f t="shared" si="14"/>
@@ -2851,23 +2851,23 @@
       <c r="L21" s="98">
         <v>13</v>
       </c>
-      <c r="Q21" s="114" t="s">
+      <c r="Q21" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="116"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="120"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="100">
         <f t="shared" ref="E22:H22" si="15">IF(F20-F21+F22&lt;0,-1,0)</f>
         <v>0</v>
@@ -2895,7 +2895,7 @@
       <c r="L22" s="98">
         <v>14</v>
       </c>
-      <c r="Q22" s="117"/>
+      <c r="Q22" s="121"/>
       <c r="R22" s="109">
         <f t="shared" ref="R22:V22" si="16">IF(S22&gt;15,R25+R26+1,R25+R26)</f>
         <v>2</v>
@@ -2921,11 +2921,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
       <c r="E23" s="102">
         <f t="shared" ref="E23:H23" si="17">IF(E20-E21+E22&lt;0,16,0)</f>
         <v>0</v>
@@ -2956,7 +2956,7 @@
       <c r="P23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q23" s="118"/>
+      <c r="Q23" s="162"/>
       <c r="R23" s="107">
         <v>0</v>
       </c>
@@ -2982,11 +2982,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="83">
         <f t="shared" ref="E24:H24" si="18">IF(AND(F20-F21+F22&lt;0,F23=16),E20+E23-E21+E22,IF(F20-F21+F22+F23&gt;=0,E20-E21+E22+E23,E20-E21+E23+F22))</f>
         <v>1</v>
@@ -3013,7 +3013,7 @@
       <c r="P24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="119"/>
+      <c r="Q24" s="122"/>
       <c r="R24" s="108">
         <v>1</v>
       </c>
@@ -3039,13 +3039,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="136"/>
       <c r="E25" s="83">
         <v>1</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="P25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="117" t="s">
+      <c r="Q25" s="121" t="s">
         <v>3</v>
       </c>
       <c r="R25" s="107">
@@ -3095,7 +3095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="P26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q26" s="119"/>
+      <c r="Q26" s="122"/>
       <c r="R26" s="108">
         <v>1</v>
       </c>
@@ -3142,8 +3142,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="Q27" s="117" t="s">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Q27" s="121" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="107">
@@ -3177,8 +3177,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q28" s="119"/>
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="122"/>
       <c r="R28" s="108"/>
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
@@ -3195,8 +3195,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q29" s="120"/>
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="163"/>
       <c r="R29" s="36"/>
       <c r="S29" s="37">
         <f t="shared" ref="S29:V29" si="20">IF(T29&gt;15,S27+S28+1,S27+S28)</f>
@@ -3219,8 +3219,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q30" s="121"/>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="164"/>
       <c r="R30" s="112"/>
       <c r="S30" s="83">
         <f t="shared" ref="S30:V30" si="21">MOD(S29,16)</f>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q31" s="113" t="s">
         <v>15</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="V31" s="83"/>
       <c r="W31" s="84"/>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3273,11 +3273,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R1:AE1"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="P12:P14"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B14:D14"/>
@@ -3286,18 +3293,11 @@
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:D19"/>
     <mergeCell ref="B20:D21"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R1:AE1"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3313,35 +3313,35 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="8" width="4.7265625" customWidth="1"/>
-    <col min="9" max="17" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="17" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="167"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="168"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12">
@@ -3405,11 +3405,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="165" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
@@ -3458,11 +3458,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="153"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="4">
         <v>0</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="82">
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3586,20 +3586,20 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="168" t="str">
+      <c r="B7" s="169" t="str">
         <f>CONCATENATE(C5,D5,E5,F5,G5,H5,I5,J5,K5,L5,",",M5,N5,O5,P5,Q5,)</f>
         <v>1000111001,01011</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3609,20 +3609,20 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="173"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -3654,11 +3654,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="170" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1">
@@ -3683,11 +3683,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="153"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="4">
         <v>0</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="82"/>
       <c r="C13" s="82">
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3752,38 +3752,38 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="168" t="str">
+      <c r="B15" s="169" t="str">
         <f>CONCATENATE(C13,D13,E13,F13,",",G13,H13,I13)</f>
         <v>1071,302</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="176"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="170" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="18">
@@ -3812,11 +3812,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="153"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="20">
         <v>1</v>
       </c>
@@ -3843,9 +3843,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="149" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="33">
@@ -3880,9 +3880,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="153"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="20">
         <f t="shared" ref="C21:G21" si="6">IF(C19=$J$18,$K$18,IF(C19=$J$19,$K$19,IF(C19=$J$20,$K$20,IF(C19=$J$21,$K$21,IF(C19=$J$22,$K$22,IF(C19=$J$23,$K$23,C19))))))</f>
         <v>1</v>
@@ -3915,7 +3915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="36"/>
       <c r="C22" s="37">
@@ -3950,9 +3950,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="200"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="83">
         <f t="shared" ref="C23:G23" si="8">IF(MOD(C22,16)=$J$18,$K$18,IF(MOD(C22,16)=$K$19,$J$19,IF(MOD(C22,16)=$K$20,$J$20,IF(MOD(C22,16)=$K$21,$J$21,IF(MOD(C22,16)=$K$23,$J$22,IF(MOD(C22,16)=$K$22,E23,IF(C22&gt;16,C22-16,C22)))))))</f>
         <v>2</v>
@@ -3985,7 +3985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3998,15 +3998,15 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="164" t="str">
+      <c r="B25" s="165" t="str">
         <f>CONCATENATE(C23,D23,E23,",",F23,G23,H23)</f>
         <v>239,614</v>
       </c>
-      <c r="C25" s="164"/>
+      <c r="C25" s="165"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4037,78 +4037,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7813CB-8C76-4CF1-A43A-6464F5EEFBB8}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="98" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="30" width="3.7265625" customWidth="1"/>
-    <col min="31" max="31" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="183" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="185"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="186"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="188"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="186"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="189"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43">
         <v>1</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="Z3" s="27"/>
       <c r="AA3" s="28"/>
     </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <f>IF($O$4=1,O$3,0)</f>
         <v>1</v>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <f>A3-A4</f>
         <v>0</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="C6" s="3">
         <f>IF($O$4=1,O$3,0)</f>
@@ -4263,7 +4263,7 @@
       <c r="E6" s="3"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="C7">
         <f>C5-C6</f>
@@ -4277,27 +4277,27 @@
         <f>E3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="182" t="s">
+      <c r="I7" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182" t="str">
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183" t="str">
         <f>CONCATENATE(O4,P4,Q4,R4,S4,T4,U4,V4,",",W4,X4,Y4,Z4,AA4)</f>
         <v>10110001,11011</v>
       </c>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="182"/>
-      <c r="U7" s="182"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
+      <c r="U7" s="183"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
       <c r="D8" s="3">
         <f>IF($Q$4=1,O$3,0)</f>
@@ -4310,7 +4310,7 @@
       <c r="F8" s="3"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="D9">
         <f>+D7-D8</f>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="H10" s="3">
         <f>IF($V$4=1,O3,0)</f>
@@ -4351,7 +4351,7 @@
       <c r="J10" s="3"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="H11">
         <f>H9-H10</f>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="I12" s="3">
         <f>IF($W$4=1,O3,0)</f>
@@ -4380,7 +4380,7 @@
       <c r="K12" s="3"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="I13">
         <f>+I11-I12</f>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="J14" s="3">
         <f>IF($X$4=1,O3,0)</f>
@@ -4409,7 +4409,7 @@
       <c r="L14" s="3"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="J15">
         <f>+J13-J14</f>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42"/>
       <c r="L16" s="3">
         <f>IF($Z$4=1,O3,0)</f>
@@ -4442,7 +4442,7 @@
       <c r="N16" s="3"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="L17">
         <f>+L15-L16</f>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="M18" s="3">
         <f>IF($AA$4=1,O3,0)</f>
@@ -4470,18 +4470,18 @@
       </c>
       <c r="AA18" s="8"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4510,27 +4510,27 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="23"/>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="176" t="s">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="177"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="178"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="179"/>
       <c r="R23" s="47"/>
       <c r="S23" s="47"/>
       <c r="T23" s="47"/>
@@ -4542,24 +4542,24 @@
       <c r="Z23" s="47"/>
       <c r="AA23" s="47"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="179"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="181"/>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="182"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
       <c r="T24" s="47"/>
@@ -4571,7 +4571,7 @@
       <c r="Z24" s="47"/>
       <c r="AA24" s="47"/>
     </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43">
         <v>5</v>
       </c>
@@ -4604,7 +4604,7 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="25"/>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>IF($G$25*G$26&gt;7,$G$25*G$26-8*INT($G$25*G$26/8),$G$25*G$26)</f>
         <v>4</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="45">
-        <f>INT(CONCATENATE(A27,B27)/$G$25-1)</f>
+        <f>INT((A27*8+B27)/$G$25)</f>
         <v>6</v>
       </c>
       <c r="I26" s="45">
@@ -4623,24 +4623,24 @@
         <v>1</v>
       </c>
       <c r="J26" s="48">
-        <f>INT(CONCATENATE(A27,B27)/$G$25-1)</f>
+        <f>INT((C31*8+D31)/$G$25)</f>
         <v>6</v>
       </c>
       <c r="K26" s="48">
-        <f>INT(CONCATENATE(D33,E33)/$G$25-1)</f>
+        <f>INT((D33*8+E33)/$G$25)</f>
         <v>6</v>
       </c>
       <c r="L26" s="48">
-        <f>INT(CONCATENATE(E35,F35)/$G$25-1)</f>
+        <f>INT((E35*8+F35)/$G$25)</f>
         <v>5</v>
       </c>
       <c r="M26" s="48">
-        <f>INT(CONCATENATE(F37,G37)/$G$25-1)</f>
+        <f>INT((F37*8+G37)/$G$25)</f>
         <v>4</v>
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <f>A25-A26</f>
         <v>1</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <f>IF($G$25*H$26&gt;7,INT($G$25*H$26/8),0)</f>
         <v>1</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <f>A27-A28</f>
         <v>0</v>
@@ -4675,26 +4675,26 @@
         <f>C25</f>
         <v>3</v>
       </c>
-      <c r="F29" s="182" t="s">
+      <c r="F29" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
       <c r="J29" t="str">
         <f>CONCATENATE(G26,H26,I26,",",J26,K26,L26,M26)</f>
         <v>261,6654</v>
       </c>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>IF($G$25*I$26&gt;7,$G$25*I$26-8*INT($G$25*I$26/8),$G$25*I$26)</f>
         <v>2</v>
       </c>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42"/>
       <c r="C32">
         <f>IF($G$25*J$26&gt;7,INT($G$25*J$26/8),0)</f>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="C33" s="24">
         <f>C31-C32</f>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42"/>
       <c r="D34" s="3">
         <f>IF($G$25*K$26&gt;7,INT($G$25*K$26/8),0)</f>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="E35" s="24">
         <f>E33-E34</f>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
       <c r="E36" s="3">
         <f>IF($G$25*L$26&gt;7,INT($G$25*L$26/8),0)</f>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="F37" s="24">
         <f>F35-F36</f>
@@ -4782,36 +4782,38 @@
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
       <c r="F38" s="3">
+        <f>IF($G$25*M$26&gt;7,INT($G$25*M$26/8),0)</f>
         <v>1</v>
       </c>
       <c r="G38" s="3">
+        <f>IF($G$25*M$26&gt;7,$G$25*M$26-8*INT($G$25*M$26/8),$G$25*M$26)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4831,48 +4833,48 @@
       <c r="Q43" s="23"/>
       <c r="R43" s="42"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="176" t="s">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="177"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="177"/>
-      <c r="N45" s="177"/>
-      <c r="O45" s="177"/>
-      <c r="P45" s="177"/>
-      <c r="Q45" s="178"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="179"/>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
-      <c r="L46" s="180"/>
-      <c r="M46" s="180"/>
-      <c r="N46" s="180"/>
-      <c r="O46" s="180"/>
-      <c r="P46" s="180"/>
-      <c r="Q46" s="181"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="178"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="178"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="178"/>
+      <c r="O45" s="178"/>
+      <c r="P45" s="178"/>
+      <c r="Q45" s="179"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="180"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="181"/>
+      <c r="K46" s="181"/>
+      <c r="L46" s="181"/>
+      <c r="M46" s="181"/>
+      <c r="N46" s="181"/>
+      <c r="O46" s="181"/>
+      <c r="P46" s="181"/>
+      <c r="Q46" s="182"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>1</v>
       </c>
@@ -4903,16 +4905,16 @@
       <c r="P47" s="24"/>
       <c r="Q47" s="25"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="183"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="183"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>1</v>
       </c>
@@ -4940,7 +4942,7 @@
       <c r="K49" s="3"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f>IF($G$49*G$50&gt;15,INT($G$49*G$50/16),0)</f>
         <v>1</v>
@@ -4989,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>A49-A50</f>
         <v>0</v>
@@ -5004,7 +5006,7 @@
       </c>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="3">
         <f>IF($G$49*H$50&gt;15,$G$49*H$50-16*INT($G$49*H$50/16),$G$49*H$50)</f>
@@ -5012,7 +5014,7 @@
       </c>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>C51-C52</f>
         <v>1</v>
@@ -5021,17 +5023,17 @@
         <f>D49</f>
         <v>11</v>
       </c>
-      <c r="F53" s="182" t="s">
+      <c r="F53" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182" t="str">
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183" t="str">
         <f>CONCATENATE(M50,N50,",",O50,P50,Q50)</f>
         <v>B1,DAE</v>
       </c>
-      <c r="J53" s="182"/>
-      <c r="K53" s="182"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
       <c r="P53" s="31" t="s">
         <v>7</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <f>IF($G$49*I$50&gt;15,INT($G$49*I$50/16),0)</f>
         <v>1</v>
@@ -5055,7 +5057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>C53-C54</f>
         <v>0</v>
@@ -5075,7 +5077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="3">
         <f>IF($G$49*J$50&gt;15,INT($G$49*J$50/16),0)</f>
         <v>1</v>
@@ -5091,7 +5093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E57">
         <f>E55-E56</f>
         <v>1</v>
@@ -5107,7 +5109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="3">
         <f>IF($G$49*K$50&gt;15,INT($G$49*K$50/16),0)</f>
         <v>1</v>
@@ -5123,32 +5125,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F59">
         <f>F57-F58</f>
         <v>0</v>
       </c>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5180,9 +5182,6 @@
     <mergeCell ref="I7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="M26" evalError="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5195,45 +5194,45 @@
       <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="9" width="4.26953125" customWidth="1"/>
-    <col min="10" max="27" width="3.26953125" customWidth="1"/>
-    <col min="28" max="40" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="40" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="193" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="195"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="192"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="59"/>
       <c r="C2" s="60">
@@ -5337,11 +5336,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="196" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="24"/>
@@ -5391,11 +5390,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="144"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -5442,9 +5441,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="196" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="24"/>
@@ -5510,9 +5509,9 @@
       </c>
       <c r="AB5" s="42"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="199"/>
+      <c r="B6" s="196"/>
       <c r="L6">
         <f t="shared" ref="K6:Y7" si="2">$Z$4*M$3</f>
         <v>0</v>
@@ -5575,9 +5574,9 @@
       </c>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="199"/>
+      <c r="B7" s="196"/>
       <c r="K7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5640,9 +5639,9 @@
       </c>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="199"/>
+      <c r="B8" s="196"/>
       <c r="J8">
         <f t="shared" ref="J8:W8" si="3">$AA$4*M$3</f>
         <v>1</v>
@@ -5705,9 +5704,9 @@
       </c>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="199"/>
+      <c r="B9" s="196"/>
       <c r="I9">
         <f t="shared" ref="I9:V9" si="4">$AA$4*M$3</f>
         <v>1</v>
@@ -5770,9 +5769,9 @@
       </c>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="199"/>
+      <c r="B10" s="196"/>
       <c r="H10">
         <f t="shared" ref="G10:U11" si="5">$Z$4*I$3</f>
         <v>0</v>
@@ -5835,9 +5834,9 @@
       </c>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="199"/>
+      <c r="B11" s="196"/>
       <c r="G11">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5900,9 +5899,9 @@
       </c>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="199"/>
+      <c r="B12" s="196"/>
       <c r="F12">
         <f t="shared" ref="F12:T12" si="6">$Z$4*H$3</f>
         <v>0</v>
@@ -5965,9 +5964,9 @@
       </c>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="199"/>
+      <c r="B13" s="196"/>
       <c r="E13">
         <f t="shared" ref="E13:S13" si="7">$Z$4*G$3</f>
         <v>0</v>
@@ -6030,9 +6029,9 @@
       </c>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="199"/>
+      <c r="B14" s="196"/>
       <c r="D14">
         <f t="shared" ref="D14:R14" si="8">$Z$4*F$3</f>
         <v>0</v>
@@ -6095,9 +6094,9 @@
       </c>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="199"/>
+      <c r="B15" s="196"/>
       <c r="C15">
         <f t="shared" ref="C15:P15" si="9">$AA$4*M$3</f>
         <v>1</v>
@@ -6160,7 +6159,7 @@
       </c>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="26"/>
       <c r="C16" s="54">
@@ -6264,42 +6263,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="182" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="182"/>
-      <c r="C18" s="182" t="str">
+      <c r="B18" s="183"/>
+      <c r="C18" s="183" t="str">
         <f>CONCATENATE(C16,D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16,Q16,",",R16,S16,T16,U16,V16,W16,X16,Y16,Z16,AA16)</f>
         <v>101000110010100,1011101011</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="182"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="196" t="s">
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="198"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="195"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="59"/>
       <c r="C21" s="60">
         <f t="shared" ref="C21:L21" si="11">IF(D21&gt;7,SUM(C24:C28)+TRUNC(D21/8),SUM(C24:C28))</f>
@@ -6346,11 +6345,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="140" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="24"/>
@@ -6379,11 +6378,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="191"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -6406,8 +6405,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="135" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="24"/>
@@ -6443,8 +6442,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="191"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="199"/>
       <c r="F25">
         <f t="shared" ref="F25:L25" si="13">$L$23*G$22</f>
         <v>3</v>
@@ -6475,8 +6474,8 @@
       </c>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="191"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="199"/>
       <c r="E26">
         <f t="shared" ref="E26:K26" si="14">$K$23*G$22</f>
         <v>6</v>
@@ -6507,8 +6506,8 @@
       </c>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="191"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="199"/>
       <c r="D27">
         <f t="shared" ref="D27:J27" si="15">$J$23*G$22</f>
         <v>0</v>
@@ -6539,8 +6538,8 @@
       </c>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="138"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="143"/>
       <c r="C28" s="3">
         <f t="shared" ref="C28:I28" si="16">$I$23*G$22</f>
         <v>4</v>
@@ -6574,7 +6573,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="23"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="54">
         <f t="shared" ref="C29:L29" si="17">MOD(C21,8)</f>
@@ -6621,31 +6620,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="182" t="str">
+      <c r="C31" s="183" t="str">
         <f>CONCATENATE(C29,D29,E29,F29,G29,",",H29,I29,J29,K29,L29,M29)</f>
         <v>50640,075573</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="196" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="198"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="195"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="59"/>
       <c r="C34" s="60">
         <f t="shared" ref="C34:G34" si="18">IF(D34&gt;15,SUM(C39:C41)+TRUNC(D34/16),SUM(C39:C41))</f>
@@ -6672,11 +6671,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="189"/>
+      <c r="B35" s="197"/>
       <c r="E35" s="30">
         <v>2</v>
       </c>
@@ -6696,11 +6695,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="190"/>
+      <c r="B36" s="198"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="64"/>
@@ -6720,11 +6719,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="140" t="s">
         <v>8</v>
       </c>
       <c r="E37">
@@ -6746,11 +6745,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="138"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -6770,8 +6769,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="135" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="140" t="s">
         <v>3</v>
       </c>
       <c r="E39">
@@ -6797,8 +6796,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="191"/>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="199"/>
       <c r="D40">
         <f>$G$38*E$37</f>
         <v>0</v>
@@ -6823,8 +6822,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="138"/>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="143"/>
       <c r="C41" s="3">
         <f>$F$38*E$37</f>
         <v>4</v>
@@ -6844,7 +6843,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="23"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="62"/>
       <c r="C42" s="45">
         <f t="shared" ref="C42:G42" si="19">MOD(C34,16)</f>
@@ -6871,16 +6870,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="56"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="192"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="200"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="63"/>
       <c r="C44" s="67">
         <v>5</v>
@@ -6901,7 +6900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -6911,6 +6910,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B1:AA1"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="B20:M20"/>
@@ -6919,12 +6924,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
